--- a/dataset/DetailedByFont.xlsx
+++ b/dataset/DetailedByFont.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MultipleLayerPerceptron\dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="22116" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fuente Times New Roman" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,12 +117,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +200,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,6 +252,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,17 +444,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="3.77734375" customWidth="1"/>
-    <col min="12" max="20" width="3.77734375" customWidth="1"/>
+    <col min="1" max="9" width="3.7109375" customWidth="1"/>
+    <col min="12" max="20" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1581,7 +1623,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>-1</v>
       </c>
@@ -1637,7 +1679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>-1</v>
       </c>
@@ -1693,7 +1735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>-1</v>
       </c>
@@ -1749,7 +1791,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>-1</v>
       </c>
@@ -1805,7 +1847,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>-1</v>
       </c>
@@ -1861,7 +1903,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>-1</v>
       </c>
@@ -1917,7 +1959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>-1</v>
       </c>
@@ -1973,7 +2015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1984,7 +2026,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1995,7 +2037,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L34" s="3">
         <v>-1</v>
       </c>
@@ -2024,7 +2066,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L35" s="3">
         <v>-1</v>
       </c>
@@ -2053,7 +2095,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L36" s="3">
         <v>-1</v>
       </c>
@@ -2082,7 +2124,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L37" s="3">
         <v>-1</v>
       </c>
@@ -2111,7 +2153,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L38" s="3">
         <v>-1</v>
       </c>
@@ -2140,7 +2182,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L39" s="3">
         <v>-1</v>
       </c>
@@ -2169,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L40" s="3">
         <v>-1</v>
       </c>
@@ -2198,7 +2240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L41" s="3">
         <v>-1</v>
       </c>
@@ -2227,7 +2269,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L42" s="3">
         <v>-1</v>
       </c>
@@ -2256,7 +2298,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -2274,17 +2316,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:T42"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="3.77734375" customWidth="1"/>
-    <col min="12" max="20" width="3.77734375" customWidth="1"/>
+    <col min="1" max="9" width="3.7109375" customWidth="1"/>
+    <col min="12" max="20" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3825,7 +3867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>-1</v>
       </c>
@@ -3883,7 +3925,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>-1</v>
       </c>
@@ -3941,7 +3983,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3963,7 +4005,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3985,7 +4027,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4025,7 +4067,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4065,7 +4107,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4105,7 +4147,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4145,7 +4187,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4185,7 +4227,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4225,7 +4267,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4265,7 +4307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4305,7 +4347,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4351,17 +4393,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:T9"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="3.77734375" customWidth="1"/>
-    <col min="12" max="20" width="3.77734375" customWidth="1"/>
+    <col min="1" max="9" width="3.7109375" customWidth="1"/>
+    <col min="12" max="20" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4528,7 +4570,9 @@
       <c r="Q3" s="6">
         <v>1</v>
       </c>
-      <c r="R3" s="1"/>
+      <c r="R3" s="3">
+        <v>-1</v>
+      </c>
       <c r="S3" s="1">
         <v>-1</v>
       </c>
@@ -4813,7 +4857,9 @@
       <c r="P8" s="6">
         <v>1</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
       <c r="R8" s="3">
         <v>-1</v>
       </c>
@@ -5557,7 +5603,9 @@
       <c r="B24" s="1">
         <v>-1</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="3">
+        <v>-1</v>
+      </c>
       <c r="D24" s="6">
         <v>1</v>
       </c>
@@ -5954,7 +6002,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>-1</v>
       </c>
@@ -6012,7 +6060,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L34" s="3">
         <v>-1</v>
       </c>
@@ -6041,7 +6089,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L35" s="3">
         <v>-1</v>
       </c>
@@ -6070,7 +6118,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L36" s="3">
         <v>-1</v>
       </c>
@@ -6099,7 +6147,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L37" s="3">
         <v>-1</v>
       </c>
@@ -6128,7 +6176,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L38" s="3">
         <v>-1</v>
       </c>
@@ -6157,7 +6205,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L39" s="3">
         <v>-1</v>
       </c>
@@ -6186,7 +6234,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L40" s="3">
         <v>-1</v>
       </c>
@@ -6215,7 +6263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L41" s="3">
         <v>-1</v>
       </c>
@@ -6244,7 +6292,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L42" s="3">
         <v>-1</v>
       </c>
@@ -6279,17 +6327,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:T42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="3.77734375" customWidth="1"/>
-    <col min="12" max="20" width="3.77734375" customWidth="1"/>
+    <col min="1" max="9" width="3.7109375" customWidth="1"/>
+    <col min="12" max="20" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -7283,7 +7331,9 @@
       <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>-1</v>
+      </c>
       <c r="H19" s="1">
         <v>-1</v>
       </c>
@@ -8028,7 +8078,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8068,7 +8118,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8108,7 +8158,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8148,7 +8198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8188,7 +8238,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8228,7 +8278,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8268,7 +8318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8308,7 +8358,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8354,21 +8404,1955 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="3.77734375" customWidth="1"/>
-    <col min="12" max="20" width="3.77734375" customWidth="1"/>
+    <col min="1" max="9" width="3.7109375" customWidth="1"/>
+    <col min="12" max="20" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E1" s="8">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I1" s="3">
+        <v>-0.64285714285714302</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S1" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T1" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>1</v>
+      </c>
+      <c r="R16" s="8">
+        <v>1</v>
+      </c>
+      <c r="S16" s="8">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>1</v>
+      </c>
+      <c r="R19" s="8">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8">
+        <v>1</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>1</v>
+      </c>
+      <c r="R24" s="8">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="8">
+        <v>1</v>
+      </c>
+      <c r="N25" s="8">
+        <v>1</v>
+      </c>
+      <c r="O25" s="8">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="8">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T25" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8">
+        <v>1</v>
+      </c>
+      <c r="P27" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="8">
+        <v>1</v>
+      </c>
+      <c r="O28" s="8">
+        <v>1</v>
+      </c>
+      <c r="P28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="8">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="8">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T30" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="12:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="12:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
+        <v>1</v>
+      </c>
+      <c r="N35" s="8">
+        <v>1</v>
+      </c>
+      <c r="O35" s="8">
+        <v>1</v>
+      </c>
+      <c r="P35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>1</v>
+      </c>
+      <c r="R35" s="8">
+        <v>1</v>
+      </c>
+      <c r="S35" s="8">
+        <v>1</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="12:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="8">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S36" s="3">
+        <v>1</v>
+      </c>
+      <c r="T36" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="12:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="8">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="12:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N38" s="8">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>1</v>
+      </c>
+      <c r="R38" s="8">
+        <v>1</v>
+      </c>
+      <c r="S38" s="8">
+        <v>1</v>
+      </c>
+      <c r="T38" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="12:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N39" s="8">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S39" s="8">
+        <v>1</v>
+      </c>
+      <c r="T39" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="12:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="8">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S40" s="8">
+        <v>1</v>
+      </c>
+      <c r="T40" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="12:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="M41" s="8">
+        <v>1</v>
+      </c>
+      <c r="N41" s="8">
+        <v>1</v>
+      </c>
+      <c r="O41" s="8">
+        <v>1</v>
+      </c>
+      <c r="P41" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>1</v>
+      </c>
+      <c r="R41" s="8">
+        <v>1</v>
+      </c>
+      <c r="S41" s="8">
+        <v>-1</v>
+      </c>
+      <c r="T41" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T42" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:T42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="4.7109375" customWidth="1"/>
+    <col min="12" max="20" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
+      <c r="A1" s="1">
         <v>-1</v>
       </c>
       <c r="B1" s="1">
@@ -8377,14 +10361,14 @@
       <c r="C1" s="1">
         <v>-1</v>
       </c>
-      <c r="D1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E1" s="8">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>-1</v>
+      <c r="D1" s="9">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F1" s="9">
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <v>-1</v>
@@ -8392,30 +10376,30 @@
       <c r="H1" s="1">
         <v>-1</v>
       </c>
-      <c r="I1" s="3">
-        <v>-0.64285714285714302</v>
+      <c r="I1" s="1">
+        <v>-1</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1">
         <v>-1</v>
       </c>
-      <c r="M1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R1" s="1">
+      <c r="M1" s="9">
+        <v>1</v>
+      </c>
+      <c r="N1" s="9">
+        <v>1</v>
+      </c>
+      <c r="O1" s="9">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="9">
+        <v>1</v>
+      </c>
+      <c r="R1" s="3">
         <v>-1</v>
       </c>
       <c r="S1" s="3">
@@ -8426,7 +10410,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>-1</v>
       </c>
       <c r="B2" s="1">
@@ -8435,13 +10419,13 @@
       <c r="C2" s="1">
         <v>-1</v>
       </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -8450,7 +10434,7 @@
       <c r="H2" s="1">
         <v>-1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>-1</v>
       </c>
       <c r="J2" s="1"/>
@@ -8458,23 +10442,23 @@
       <c r="L2" s="1">
         <v>-1</v>
       </c>
-      <c r="M2" s="8">
-        <v>1</v>
-      </c>
-      <c r="N2" s="8">
-        <v>1</v>
-      </c>
-      <c r="O2" s="8">
-        <v>1</v>
-      </c>
-      <c r="P2" s="8">
-        <v>1</v>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1</v>
       </c>
       <c r="Q2" s="1">
         <v>-1</v>
       </c>
-      <c r="R2" s="1">
-        <v>-1</v>
+      <c r="R2" s="9">
+        <v>1</v>
       </c>
       <c r="S2" s="1">
         <v>-1</v>
@@ -8484,7 +10468,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>-1</v>
       </c>
       <c r="B3" s="1">
@@ -8493,13 +10477,13 @@
       <c r="C3" s="1">
         <v>-1</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="9">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -8508,7 +10492,7 @@
       <c r="H3" s="1">
         <v>-1</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>-1</v>
       </c>
       <c r="J3" s="1"/>
@@ -8516,11 +10500,11 @@
       <c r="L3" s="1">
         <v>-1</v>
       </c>
-      <c r="M3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="8">
-        <v>1</v>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1</v>
       </c>
       <c r="O3" s="1">
         <v>-1</v>
@@ -8528,45 +10512,45 @@
       <c r="P3" s="1">
         <v>-1</v>
       </c>
-      <c r="Q3" s="8">
-        <v>1</v>
-      </c>
-      <c r="R3" s="8">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>-1</v>
+      <c r="Q3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1</v>
       </c>
       <c r="T3" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>-1</v>
       </c>
       <c r="B4" s="1">
         <v>-1</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>-1</v>
       </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>-1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>-1</v>
       </c>
       <c r="J4" s="1"/>
@@ -8574,11 +10558,11 @@
       <c r="L4" s="1">
         <v>-1</v>
       </c>
-      <c r="M4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1</v>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-1</v>
       </c>
       <c r="O4" s="1">
         <v>-1</v>
@@ -8589,24 +10573,24 @@
       <c r="Q4" s="1">
         <v>-1</v>
       </c>
-      <c r="R4" s="8">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>-1</v>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
       </c>
       <c r="T4" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>-1</v>
       </c>
       <c r="B5" s="1">
         <v>-1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="D5" s="3">
@@ -8618,13 +10602,13 @@
       <c r="F5" s="3">
         <v>-1</v>
       </c>
-      <c r="G5" s="8">
-        <v>1</v>
+      <c r="G5" s="3">
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>-1</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>-1</v>
       </c>
       <c r="J5" s="1"/>
@@ -8632,11 +10616,11 @@
       <c r="L5" s="1">
         <v>-1</v>
       </c>
-      <c r="M5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-1</v>
       </c>
       <c r="O5" s="1">
         <v>-1</v>
@@ -8647,54 +10631,54 @@
       <c r="Q5" s="1">
         <v>-1</v>
       </c>
-      <c r="R5" s="8">
-        <v>1</v>
-      </c>
-      <c r="S5" s="8">
-        <v>1</v>
+      <c r="R5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
       </c>
       <c r="T5" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
+      <c r="A6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
         <v>-1</v>
       </c>
-      <c r="M6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="8">
-        <v>1</v>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-1</v>
       </c>
       <c r="O6" s="1">
         <v>-1</v>
@@ -8705,42 +10689,42 @@
       <c r="Q6" s="1">
         <v>-1</v>
       </c>
-      <c r="R6" s="8">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>-1</v>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-1</v>
+      <c r="A7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>-1</v>
       </c>
       <c r="J7" s="1"/>
@@ -8748,11 +10732,11 @@
       <c r="L7" s="1">
         <v>-1</v>
       </c>
-      <c r="M7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="8">
-        <v>1</v>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-1</v>
       </c>
       <c r="O7" s="1">
         <v>-1</v>
@@ -8760,24 +10744,24 @@
       <c r="P7" s="1">
         <v>-1</v>
       </c>
-      <c r="Q7" s="8">
-        <v>1</v>
-      </c>
-      <c r="R7" s="8">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3">
-        <v>-1</v>
+      <c r="Q7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="9">
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="9">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -8795,10 +10779,10 @@
       <c r="G8" s="3">
         <v>-1</v>
       </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>-1</v>
       </c>
       <c r="J8" s="1"/>
@@ -8806,23 +10790,23 @@
       <c r="L8" s="1">
         <v>-1</v>
       </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="8">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3">
-        <v>-1</v>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
       </c>
       <c r="S8" s="3">
         <v>-1</v>
@@ -8832,14 +10816,14 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>1</v>
+      <c r="A9" s="1">
+        <v>-1</v>
       </c>
       <c r="B9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1</v>
       </c>
       <c r="D9" s="3">
         <v>-1</v>
@@ -8850,34 +10834,34 @@
       <c r="F9" s="3">
         <v>-1</v>
       </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
+      <c r="G9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
         <v>-1</v>
       </c>
-      <c r="M9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>-1</v>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1</v>
       </c>
       <c r="O9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1</v>
       </c>
       <c r="R9" s="3">
         <v>-1</v>
@@ -8937,23 +10921,23 @@
       <c r="A12" s="1">
         <v>-1</v>
       </c>
-      <c r="B12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-1</v>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>-1</v>
@@ -8967,22 +10951,22 @@
         <v>-1</v>
       </c>
       <c r="M12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>-1</v>
@@ -8992,29 +10976,29 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-1</v>
+      <c r="A13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>-1</v>
@@ -9024,23 +11008,23 @@
       <c r="L13" s="3">
         <v>-1</v>
       </c>
-      <c r="M13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>1</v>
-      </c>
-      <c r="R13" s="8">
-        <v>1</v>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-1</v>
       </c>
       <c r="S13" s="3">
         <v>-1</v>
@@ -9053,11 +11037,11 @@
       <c r="A14" s="1">
         <v>-1</v>
       </c>
-      <c r="B14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-1</v>
       </c>
       <c r="D14" s="1">
         <v>-1</v>
@@ -9068,11 +11052,11 @@
       <c r="F14" s="1">
         <v>-1</v>
       </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-1</v>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>-1</v>
@@ -9082,11 +11066,11 @@
       <c r="L14" s="3">
         <v>-1</v>
       </c>
-      <c r="M14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1</v>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-1</v>
       </c>
       <c r="O14" s="1">
         <v>-1</v>
@@ -9111,11 +11095,11 @@
       <c r="A15" s="1">
         <v>-1</v>
       </c>
-      <c r="B15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-1</v>
       </c>
       <c r="D15" s="1">
         <v>-1</v>
@@ -9126,11 +11110,11 @@
       <c r="F15" s="1">
         <v>-1</v>
       </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-1</v>
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
       </c>
       <c r="I15" s="1">
         <v>-1</v>
@@ -9140,14 +11124,14 @@
       <c r="L15" s="3">
         <v>-1</v>
       </c>
-      <c r="M15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-1</v>
       </c>
       <c r="P15" s="1">
         <v>-1</v>
@@ -9169,26 +11153,26 @@
       <c r="A16" s="1">
         <v>-1</v>
       </c>
-      <c r="B16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>-1</v>
@@ -9198,26 +11182,26 @@
       <c r="L16" s="3">
         <v>-1</v>
       </c>
-      <c r="M16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8">
-        <v>1</v>
-      </c>
-      <c r="P16" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>1</v>
-      </c>
-      <c r="R16" s="8">
-        <v>-1</v>
-      </c>
-      <c r="S16" s="8">
-        <v>1</v>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-1</v>
       </c>
       <c r="T16" s="3">
         <v>-1</v>
@@ -9227,11 +11211,11 @@
       <c r="A17" s="1">
         <v>-1</v>
       </c>
-      <c r="B17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1</v>
       </c>
       <c r="D17" s="1">
         <v>-1</v>
@@ -9242,11 +11226,11 @@
       <c r="F17" s="1">
         <v>-1</v>
       </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-1</v>
+      <c r="G17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
       </c>
       <c r="I17" s="1">
         <v>-1</v>
@@ -9256,14 +11240,14 @@
       <c r="L17" s="3">
         <v>-1</v>
       </c>
-      <c r="M17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N17" s="8">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8">
-        <v>1</v>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-1</v>
       </c>
       <c r="P17" s="1">
         <v>-1</v>
@@ -9282,14 +11266,14 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
+      <c r="A18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-1</v>
       </c>
       <c r="D18" s="1">
         <v>-1</v>
@@ -9300,11 +11284,11 @@
       <c r="F18" s="1">
         <v>-1</v>
       </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>-1</v>
+      <c r="G18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>-1</v>
@@ -9314,11 +11298,11 @@
       <c r="L18" s="3">
         <v>-1</v>
       </c>
-      <c r="M18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N18" s="8">
-        <v>1</v>
+      <c r="M18" s="9">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-1</v>
       </c>
       <c r="O18" s="1">
         <v>-1</v>
@@ -9340,29 +11324,29 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>1</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>-1</v>
+      <c r="A19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <v>-1</v>
@@ -9372,23 +11356,23 @@
       <c r="L19" s="3">
         <v>-1</v>
       </c>
-      <c r="M19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N19" s="8">
-        <v>1</v>
-      </c>
-      <c r="O19" s="8">
-        <v>1</v>
-      </c>
-      <c r="P19" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>1</v>
-      </c>
-      <c r="R19" s="8">
-        <v>1</v>
+      <c r="M19" s="9">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-1</v>
       </c>
       <c r="S19" s="3">
         <v>-1</v>
@@ -9401,23 +11385,23 @@
       <c r="A20" s="1">
         <v>-1</v>
       </c>
-      <c r="B20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>-1</v>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <v>-1</v>
@@ -9431,27 +11415,27 @@
         <v>-1</v>
       </c>
       <c r="M20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>1</v>
+      </c>
+      <c r="O20" s="9">
+        <v>1</v>
+      </c>
+      <c r="P20" s="9">
+        <v>1</v>
       </c>
       <c r="Q20" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-1</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -9506,20 +11490,20 @@
       <c r="B23" s="1">
         <v>-1</v>
       </c>
-      <c r="C23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-1</v>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>-1</v>
@@ -9532,26 +11516,26 @@
       <c r="L23" s="3">
         <v>-1</v>
       </c>
-      <c r="M23" s="3">
-        <v>-1</v>
+      <c r="M23" s="9">
+        <v>1</v>
       </c>
       <c r="N23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>1</v>
       </c>
       <c r="P23" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>1</v>
+      </c>
+      <c r="S23" s="9">
+        <v>1</v>
       </c>
       <c r="T23" s="3">
         <v>-1</v>
@@ -9561,24 +11545,26 @@
       <c r="A24" s="1">
         <v>-1</v>
       </c>
-      <c r="B24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1</v>
       </c>
       <c r="G24" s="1">
         <v>-1</v>
       </c>
-      <c r="H24" s="1">
-        <v>-1</v>
+      <c r="H24" s="9">
+        <v>1</v>
       </c>
       <c r="I24" s="1">
         <v>-1</v>
@@ -9588,23 +11574,23 @@
       <c r="L24" s="3">
         <v>-1</v>
       </c>
-      <c r="M24" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N24" s="8">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8">
-        <v>1</v>
-      </c>
-      <c r="P24" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>1</v>
-      </c>
-      <c r="R24" s="8">
-        <v>1</v>
+      <c r="M24" s="9">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>-1</v>
       </c>
       <c r="S24" s="3">
         <v>-1</v>
@@ -9617,11 +11603,11 @@
       <c r="A25" s="1">
         <v>-1</v>
       </c>
-      <c r="B25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-1</v>
       </c>
       <c r="D25" s="1">
         <v>-1</v>
@@ -9632,11 +11618,11 @@
       <c r="F25" s="1">
         <v>-1</v>
       </c>
-      <c r="G25" s="8">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>-1</v>
+      <c r="G25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1</v>
       </c>
       <c r="I25" s="1">
         <v>-1</v>
@@ -9646,25 +11632,25 @@
       <c r="L25" s="3">
         <v>-1</v>
       </c>
-      <c r="M25" s="8">
-        <v>1</v>
-      </c>
-      <c r="N25" s="8">
-        <v>1</v>
-      </c>
-      <c r="O25" s="8">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R25" s="8">
-        <v>1</v>
-      </c>
-      <c r="S25" s="3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S25" s="1">
         <v>-1</v>
       </c>
       <c r="T25" s="3">
@@ -9675,14 +11661,14 @@
       <c r="A26" s="1">
         <v>-1</v>
       </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1</v>
       </c>
       <c r="E26" s="1">
         <v>-1</v>
@@ -9690,8 +11676,8 @@
       <c r="F26" s="1">
         <v>-1</v>
       </c>
-      <c r="G26" s="8">
-        <v>1</v>
+      <c r="G26" s="1">
+        <v>-1</v>
       </c>
       <c r="H26" s="1">
         <v>-1</v>
@@ -9704,25 +11690,25 @@
       <c r="L26" s="3">
         <v>-1</v>
       </c>
-      <c r="M26" s="8">
-        <v>1</v>
-      </c>
-      <c r="N26" s="8">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="M26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="1">
         <v>-1</v>
       </c>
       <c r="R26" s="3">
         <v>-1</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="1">
         <v>-1</v>
       </c>
       <c r="T26" s="3">
@@ -9733,11 +11719,11 @@
       <c r="A27" s="1">
         <v>-1</v>
       </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-1</v>
       </c>
       <c r="D27" s="1">
         <v>-1</v>
@@ -9762,25 +11748,25 @@
       <c r="L27" s="3">
         <v>-1</v>
       </c>
-      <c r="M27" s="8">
-        <v>1</v>
-      </c>
-      <c r="N27" s="8">
-        <v>1</v>
-      </c>
-      <c r="O27" s="8">
-        <v>1</v>
-      </c>
-      <c r="P27" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>1</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="M27" s="9">
+        <v>1</v>
+      </c>
+      <c r="N27" s="9">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>1</v>
+      </c>
+      <c r="R27" s="9">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
         <v>-1</v>
       </c>
       <c r="T27" s="3">
@@ -9791,11 +11777,11 @@
       <c r="A28" s="1">
         <v>-1</v>
       </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-1</v>
       </c>
       <c r="D28" s="1">
         <v>-1</v>
@@ -9806,8 +11792,8 @@
       <c r="F28" s="1">
         <v>-1</v>
       </c>
-      <c r="G28" s="8">
-        <v>1</v>
+      <c r="G28" s="1">
+        <v>-1</v>
       </c>
       <c r="H28" s="1">
         <v>-1</v>
@@ -9820,25 +11806,25 @@
       <c r="L28" s="3">
         <v>-1</v>
       </c>
-      <c r="M28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N28" s="8">
-        <v>1</v>
-      </c>
-      <c r="O28" s="8">
-        <v>1</v>
-      </c>
-      <c r="P28" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="3">
+      <c r="M28" s="9">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="1">
         <v>-1</v>
       </c>
       <c r="R28" s="3">
         <v>-1</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="1">
         <v>-1</v>
       </c>
       <c r="T28" s="3">
@@ -9849,11 +11835,11 @@
       <c r="A29" s="1">
         <v>-1</v>
       </c>
-      <c r="B29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-1</v>
       </c>
       <c r="D29" s="1">
         <v>-1</v>
@@ -9864,11 +11850,11 @@
       <c r="F29" s="1">
         <v>-1</v>
       </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>-1</v>
+      <c r="G29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1</v>
       </c>
       <c r="I29" s="1">
         <v>-1</v>
@@ -9878,22 +11864,22 @@
       <c r="L29" s="3">
         <v>-1</v>
       </c>
-      <c r="M29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N29" s="8">
-        <v>1</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="M29" s="9">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="1">
         <v>-1</v>
       </c>
       <c r="S29" s="3">
@@ -9907,26 +11893,26 @@
       <c r="A30" s="1">
         <v>-1</v>
       </c>
-      <c r="B30" s="1">
-        <v>-1</v>
+      <c r="B30" s="9">
+        <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>-1</v>
       </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1</v>
+      <c r="D30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1</v>
       </c>
       <c r="G30" s="1">
         <v>-1</v>
       </c>
-      <c r="H30" s="1">
-        <v>-1</v>
+      <c r="H30" s="9">
+        <v>1</v>
       </c>
       <c r="I30" s="1">
         <v>-1</v>
@@ -9937,21 +11923,21 @@
         <v>-1</v>
       </c>
       <c r="M30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N30" s="8">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R30" s="1">
         <v>-1</v>
       </c>
       <c r="S30" s="3">
@@ -9968,20 +11954,20 @@
       <c r="B31" s="3">
         <v>-1</v>
       </c>
-      <c r="C31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>-1</v>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
       </c>
       <c r="H31" s="3">
         <v>-1</v>
@@ -9994,1940 +11980,6 @@
       <c r="L31" s="3">
         <v>-1</v>
       </c>
-      <c r="M31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N31" s="8">
-        <v>1</v>
-      </c>
-      <c r="O31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T31" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T34" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L35" s="8">
-        <v>1</v>
-      </c>
-      <c r="M35" s="8">
-        <v>1</v>
-      </c>
-      <c r="N35" s="8">
-        <v>1</v>
-      </c>
-      <c r="O35" s="8">
-        <v>1</v>
-      </c>
-      <c r="P35" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>1</v>
-      </c>
-      <c r="R35" s="8">
-        <v>1</v>
-      </c>
-      <c r="S35" s="8">
-        <v>1</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N36" s="8">
-        <v>1</v>
-      </c>
-      <c r="O36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S36" s="3">
-        <v>1</v>
-      </c>
-      <c r="T36" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N37" s="8">
-        <v>1</v>
-      </c>
-      <c r="O37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T37" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N38" s="8">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P38" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>1</v>
-      </c>
-      <c r="R38" s="8">
-        <v>1</v>
-      </c>
-      <c r="S38" s="8">
-        <v>1</v>
-      </c>
-      <c r="T38" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N39" s="8">
-        <v>1</v>
-      </c>
-      <c r="O39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P39" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S39" s="8">
-        <v>1</v>
-      </c>
-      <c r="T39" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N40" s="8">
-        <v>1</v>
-      </c>
-      <c r="O40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S40" s="8">
-        <v>1</v>
-      </c>
-      <c r="T40" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L41" s="8">
-        <v>1</v>
-      </c>
-      <c r="M41" s="8">
-        <v>1</v>
-      </c>
-      <c r="N41" s="8">
-        <v>1</v>
-      </c>
-      <c r="O41" s="8">
-        <v>1</v>
-      </c>
-      <c r="P41" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="8">
-        <v>1</v>
-      </c>
-      <c r="R41" s="8">
-        <v>1</v>
-      </c>
-      <c r="S41" s="8">
-        <v>-1</v>
-      </c>
-      <c r="T41" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="12:20" x14ac:dyDescent="0.3">
-      <c r="L42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S42" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T42" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T42"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:T42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="9" width="4.77734375" customWidth="1"/>
-    <col min="12" max="20" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D1" s="9">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F1" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M1" s="9">
-        <v>1</v>
-      </c>
-      <c r="N1" s="9">
-        <v>1</v>
-      </c>
-      <c r="O1" s="9">
-        <v>1</v>
-      </c>
-      <c r="P1" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q1" s="9">
-        <v>1</v>
-      </c>
-      <c r="R1" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S1" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T1" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R2" s="9">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S3" s="9">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="9">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S6" s="9">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="9">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="9">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="9">
-        <v>1</v>
-      </c>
-      <c r="N9" s="9">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1</v>
-      </c>
-      <c r="O12" s="9">
-        <v>1</v>
-      </c>
-      <c r="P12" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="9">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="9">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T14" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="9">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T15" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M16" s="9">
-        <v>1</v>
-      </c>
-      <c r="N16" s="9">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T16" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="9">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T17" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M18" s="9">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B19" s="9">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M19" s="9">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T19" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N20" s="9">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9">
-        <v>1</v>
-      </c>
-      <c r="P20" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T20" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M23" s="9">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="9">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R23" s="9">
-        <v>1</v>
-      </c>
-      <c r="S23" s="9">
-        <v>1</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M24" s="9">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T25" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M26" s="9">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M27" s="9">
-        <v>1</v>
-      </c>
-      <c r="N27" s="9">
-        <v>1</v>
-      </c>
-      <c r="O27" s="9">
-        <v>1</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>1</v>
-      </c>
-      <c r="R27" s="9">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M28" s="9">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T28" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M29" s="9">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T29" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="9">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T30" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F31" s="9">
-        <v>1</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="3">
-        <v>-1</v>
-      </c>
       <c r="M31" s="9">
         <v>1</v>
       </c>
@@ -11953,7 +12005,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -11975,7 +12027,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -11997,7 +12049,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -12022,7 +12074,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="9">
         <v>1</v>
@@ -12037,7 +12089,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -12077,7 +12129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -12117,7 +12169,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -12157,7 +12209,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -12197,7 +12249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -12213,7 +12265,7 @@
         <v>-1</v>
       </c>
       <c r="M39" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="3">
         <v>-1</v>
@@ -12231,13 +12283,13 @@
         <v>-1</v>
       </c>
       <c r="S39" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -12271,13 +12323,13 @@
         <v>-1</v>
       </c>
       <c r="S40" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -12317,7 +12369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
